--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-579172.721652622</v>
+        <v>-582167.6450375881</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8081470.645674332</v>
+        <v>8040625.778002375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13759862.74374747</v>
+        <v>13761365.15714918</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>170.1519553773891</v>
       </c>
       <c r="D2" t="n">
-        <v>294.5313563445657</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>226.6380347016341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>394.115006824191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>105.9616620475106</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>127.007578794843</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>21.73542224067549</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.710083106054</v>
+        <v>353.0025561272491</v>
       </c>
       <c r="H8" t="n">
         <v>323.1640301487662</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>49.82454041671419</v>
+        <v>49.82454041671424</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.1240048883792</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.0055152653823</v>
       </c>
       <c r="I9" t="n">
-        <v>60.05742194167554</v>
+        <v>60.05742194167556</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.25008005859563</v>
+        <v>47.25008005859566</v>
       </c>
       <c r="S9" t="n">
         <v>155.8549471289656</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>161.7483542891201</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>95.56111126961584</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.33995282860001</v>
+        <v>26.33995282860004</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5663811939507</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2800615416458</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.4297866248791</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.67037196991794</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>28.20584125154421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>213.438355392189</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890358</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>47.70773376922652</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>33.60408818428813</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2056,10 +2056,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>261.543264820456</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>64.94752030416369</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>174.9773701475757</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>270.069702148647</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>84.56702400647404</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>115.0648329620458</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652707</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652662</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.019407190355</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.019407190355</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1983.253820721549</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1630.485165451435</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1257.019407190355</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1257.019407190355</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.753525949915</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.791009009504</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.791009009504</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>870.0027564112595</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1983.586668520027</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949915</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2127.548671545901</v>
+        <v>1658.484712665354</v>
       </c>
       <c r="C8" t="n">
-        <v>2105.593699585623</v>
+        <v>1658.484712665354</v>
       </c>
       <c r="D8" t="n">
-        <v>1747.328000978873</v>
+        <v>1300.219014058603</v>
       </c>
       <c r="E8" t="n">
-        <v>1361.539748380628</v>
+        <v>1300.219014058603</v>
       </c>
       <c r="F8" t="n">
-        <v>950.5538435910207</v>
+        <v>889.2331092689956</v>
       </c>
       <c r="G8" t="n">
         <v>532.6648707566227</v>
@@ -4799,22 +4799,22 @@
         <v>206.2365574750407</v>
       </c>
       <c r="I8" t="n">
-        <v>55.65566811715185</v>
+        <v>55.65566811715183</v>
       </c>
       <c r="J8" t="n">
         <v>177.648678287298</v>
       </c>
       <c r="K8" t="n">
-        <v>481.2293813544685</v>
+        <v>481.2293813544684</v>
       </c>
       <c r="L8" t="n">
-        <v>910.1247154935693</v>
+        <v>910.1247154935691</v>
       </c>
       <c r="M8" t="n">
         <v>1403.959959479935</v>
       </c>
       <c r="N8" t="n">
-        <v>1891.15397645704</v>
+        <v>1891.153976457039</v>
       </c>
       <c r="O8" t="n">
         <v>2306.009833662056</v>
@@ -4826,28 +4826,28 @@
         <v>2782.783405857592</v>
       </c>
       <c r="R8" t="n">
-        <v>2732.455587254851</v>
+        <v>2732.45558725485</v>
       </c>
       <c r="S8" t="n">
-        <v>2732.455587254851</v>
+        <v>2732.45558725485</v>
       </c>
       <c r="T8" t="n">
-        <v>2514.148511610023</v>
+        <v>2732.45558725485</v>
       </c>
       <c r="U8" t="n">
-        <v>2514.148511610023</v>
+        <v>2732.45558725485</v>
       </c>
       <c r="V8" t="n">
-        <v>2514.148511610023</v>
+        <v>2401.39269991128</v>
       </c>
       <c r="W8" t="n">
-        <v>2514.148511610023</v>
+        <v>2048.624044641165</v>
       </c>
       <c r="X8" t="n">
-        <v>2514.148511610023</v>
+        <v>2048.624044641165</v>
       </c>
       <c r="Y8" t="n">
-        <v>2514.148511610023</v>
+        <v>1658.484712665354</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.2458793658409</v>
       </c>
       <c r="G9" t="n">
-        <v>221.3758067101395</v>
+        <v>221.3758067101396</v>
       </c>
       <c r="H9" t="n">
         <v>116.3197306845009</v>
       </c>
       <c r="I9" t="n">
-        <v>55.65566811715185</v>
+        <v>55.65566811715183</v>
       </c>
       <c r="J9" t="n">
-        <v>127.706524924368</v>
+        <v>134.620489555702</v>
       </c>
       <c r="K9" t="n">
-        <v>389.2908252093699</v>
+        <v>396.2047898407038</v>
       </c>
       <c r="L9" t="n">
-        <v>802.4275947370552</v>
+        <v>809.341559368389</v>
       </c>
       <c r="M9" t="n">
-        <v>1336.517940013648</v>
+        <v>1343.431904644982</v>
       </c>
       <c r="N9" t="n">
-        <v>1900.451080881747</v>
+        <v>1723.368686651999</v>
       </c>
       <c r="O9" t="n">
-        <v>2349.924053243217</v>
+        <v>2172.841659013468</v>
       </c>
       <c r="P9" t="n">
-        <v>2693.66267212311</v>
+        <v>2516.580277893362</v>
       </c>
       <c r="Q9" t="n">
         <v>2693.66267212311</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.1820431369658</v>
+        <v>517.067577161497</v>
       </c>
       <c r="C10" t="n">
-        <v>152.1820431369658</v>
+        <v>517.067577161497</v>
       </c>
       <c r="D10" t="n">
-        <v>152.1820431369658</v>
+        <v>366.9509377491612</v>
       </c>
       <c r="E10" t="n">
-        <v>152.1820431369658</v>
+        <v>219.0378441667681</v>
       </c>
       <c r="F10" t="n">
-        <v>152.1820431369658</v>
+        <v>219.0378441667681</v>
       </c>
       <c r="G10" t="n">
-        <v>152.1820431369658</v>
+        <v>55.65566811715183</v>
       </c>
       <c r="H10" t="n">
-        <v>152.1820431369658</v>
+        <v>55.65566811715183</v>
       </c>
       <c r="I10" t="n">
-        <v>55.65566811715185</v>
+        <v>55.65566811715183</v>
       </c>
       <c r="J10" t="n">
-        <v>55.65566811715185</v>
+        <v>55.65566811715183</v>
       </c>
       <c r="K10" t="n">
         <v>115.7803023734703</v>
       </c>
       <c r="L10" t="n">
-        <v>248.2455686374522</v>
+        <v>248.2455686374521</v>
       </c>
       <c r="M10" t="n">
-        <v>398.3007420065023</v>
+        <v>398.3007420065022</v>
       </c>
       <c r="N10" t="n">
-        <v>550.2225551644931</v>
+        <v>550.2225551644929</v>
       </c>
       <c r="O10" t="n">
-        <v>674.5306433594063</v>
+        <v>674.5306433594061</v>
       </c>
       <c r="P10" t="n">
-        <v>757.377005467104</v>
+        <v>757.3770054671037</v>
       </c>
       <c r="Q10" t="n">
-        <v>730.7709925089222</v>
+        <v>730.7709925089218</v>
       </c>
       <c r="R10" t="n">
-        <v>730.7709925089222</v>
+        <v>730.7709925089218</v>
       </c>
       <c r="S10" t="n">
-        <v>730.7709925089222</v>
+        <v>517.067577161497</v>
       </c>
       <c r="T10" t="n">
-        <v>730.7709925089222</v>
+        <v>517.067577161497</v>
       </c>
       <c r="U10" t="n">
-        <v>441.5992131739264</v>
+        <v>517.067577161497</v>
       </c>
       <c r="V10" t="n">
-        <v>441.5992131739264</v>
+        <v>517.067577161497</v>
       </c>
       <c r="W10" t="n">
-        <v>152.1820431369658</v>
+        <v>517.067577161497</v>
       </c>
       <c r="X10" t="n">
-        <v>152.1820431369658</v>
+        <v>517.067577161497</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.1820431369658</v>
+        <v>517.067577161497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5030,10 +5030,10 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5048,13 +5048,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1036.495701195956</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>867.5595182680493</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>717.4428788557135</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>569.5297852733204</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>422.63983777541</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>254.937001150129</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1883.949150983574</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W13" t="n">
-        <v>1666.926296067743</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X13" t="n">
-        <v>1438.936745169726</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y13" t="n">
-        <v>1218.144166026196</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,43 +5361,43 @@
         <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.9417306852383</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C16" t="n">
-        <v>270.9417306852383</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>270.9417306852383</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>270.9417306852383</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>124.051783187328</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>1486.064679522868</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154781</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>851.0327524903274</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="C19" t="n">
-        <v>682.0965695624205</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
         <v>339.1038984121913</v>
@@ -5680,43 +5680,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931532</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501058</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.473796464097</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1253.473796464097</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1032.681217320567</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5941,19 +5941,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1278.705850520797</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1024.02136231491</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1024.02136231491</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>796.0318114168931</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>575.239232273363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1172.647446689874</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623.6704680167705</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>623.6704680167705</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1033.308483745028</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>805.3189328470103</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>805.3189328470103</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>2996.062531649192</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
         <v>3547.201365906985</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6409,7 +6409,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
         <v>1559.196154437386</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193577</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6649,22 +6649,22 @@
         <v>1764.657581931531</v>
       </c>
       <c r="T31" t="n">
-        <v>1587.912763600646</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1587.912763600646</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1333.228275394759</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1043.811105357798</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>815.8215544597811</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.0289753162509</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6777,25 +6777,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310565</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562693</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.85172296203</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.5769285337227</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>680.6407456058158</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>530.5241061934801</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>382.6110126110869</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>235.7210651131766</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6856,52 +6856,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2313.18539533363</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.18539533363</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>2024.109181648357</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.42469344247</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1480.00752340551</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1252.017972507492</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.225393363962</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>373.3442236507198</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319335</v>
+        <v>921.983162189159</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656828</v>
+        <v>778.3953859427374</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150035</v>
+        <v>653.6271532118872</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942666</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580126</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345489</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384033</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>482.1471447887722</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>894.7529362604303</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507198</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>915.089423558717</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1537.185386958053</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2084.061861958247</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2503.645380384323</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>921.983162189159</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>778.3953859427378</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>653.6271532118875</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887722</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604303</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345484</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384028</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168622</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>921.9831621891593</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>778.3953859427378</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>653.6271532118875</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>119.1072326824956</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>293.4874664030665</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.2061824532751</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>180.7381496078621</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>104.3976710547468</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>48.65289230147073</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.31264782909108</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>105.4217923522913</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>101.1142237685008</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>83.32522828944168</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23470,10 +23470,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356949</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>137.819967007484</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,16 +23704,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>73.08464294440202</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.219052476067773e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>100.9077392489858</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.829874462281</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>24.66857338515689</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.66795271404867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,10 +24649,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>44.57157912859353</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>55.88696578547987</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>66.27365539641318</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.293187779083382e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1172363.876039664</v>
+        <v>1172363.876039663</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108365</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108365</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108365</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108365</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>234674.5613205866</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="E2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="F2" t="n">
         <v>238249.0721321899</v>
       </c>
       <c r="G2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="H2" t="n">
-        <v>238249.07213219</v>
+        <v>238249.0721321898</v>
       </c>
       <c r="I2" t="n">
         <v>238249.0721321899</v>
@@ -26341,19 +26341,19 @@
         <v>238249.07213219</v>
       </c>
       <c r="L2" t="n">
-        <v>242004.8931355678</v>
+        <v>242004.8931355677</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.530959285</v>
+      </c>
+      <c r="N2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="O2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.5309592848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592848</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22433.10321613058</v>
+        <v>22433.10321613043</v>
       </c>
       <c r="E3" t="n">
-        <v>706179.2730504238</v>
+        <v>706179.2730504239</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>191822.9586541106</v>
+        <v>191822.9586541095</v>
       </c>
       <c r="M3" t="n">
-        <v>150622.850365109</v>
+        <v>144383.1494818737</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170064.6967383259</v>
+        <v>170064.696738326</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>187057.2312487997</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662918</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.3959195899</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.3959195899</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591958995</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>84562.47446587948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-608217.0926956933</v>
+        <v>-608314.0757760159</v>
       </c>
       <c r="C6" t="n">
         <v>-28753.14349655426</v>
       </c>
       <c r="D6" t="n">
-        <v>-47740.27797152485</v>
+        <v>-47740.27797152476</v>
       </c>
       <c r="E6" t="n">
-        <v>-585933.3271690394</v>
+        <v>-586000.5226592653</v>
       </c>
       <c r="F6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911584</v>
       </c>
       <c r="G6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911587</v>
       </c>
       <c r="H6" t="n">
-        <v>120245.9458813845</v>
+        <v>120178.7503911585</v>
       </c>
       <c r="I6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911586</v>
       </c>
       <c r="J6" t="n">
-        <v>-56177.27331120853</v>
+        <v>-56244.46880143437</v>
       </c>
       <c r="K6" t="n">
-        <v>120245.9458813842</v>
+        <v>120178.7503911584</v>
       </c>
       <c r="L6" t="n">
-        <v>-55818.02073644422</v>
+        <v>-55853.91771830755</v>
       </c>
       <c r="M6" t="n">
-        <v>-19922.9431594912</v>
+        <v>-14437.75894870986</v>
       </c>
       <c r="N6" t="n">
-        <v>130699.9072056181</v>
+        <v>129945.3905331637</v>
       </c>
       <c r="O6" t="n">
-        <v>130699.9072056178</v>
+        <v>129945.3905331636</v>
       </c>
       <c r="P6" t="n">
-        <v>130699.9072056179</v>
+        <v>129945.3905331636</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>396.1727842589032</v>
+        <v>396.1727842589029</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,19 +26765,19 @@
         <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>695.6958514643981</v>
+        <v>695.6958514643979</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.42912004181647</v>
+        <v>18.4291200418163</v>
       </c>
       <c r="E3" t="n">
         <v>693.6039163343951</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2643481230884</v>
+        <v>268.2643481230868</v>
       </c>
       <c r="M3" t="n">
-        <v>9.934451625286783</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>21.40857870984246</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>21.40857870984246</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.69914404132714</v>
       </c>
       <c r="D2" t="n">
-        <v>60.15168527611723</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.133230616595</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>12.76103891752041</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>221.7905964226243</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>125.130064528985</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>343.5374695303321</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>60.70752697880488</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>172.7274572393116</v>
+        <v>172.7274572393117</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.1240048883792</v>
       </c>
       <c r="U8" t="n">
         <v>251.21824055511</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2765694196312</v>
+        <v>5.528215130511143</v>
       </c>
       <c r="H10" t="n">
         <v>155.8754186876821</v>
       </c>
       <c r="I10" t="n">
-        <v>38.40510840635635</v>
+        <v>133.9662196759722</v>
       </c>
       <c r="J10" t="n">
-        <v>42.85039744156639</v>
+        <v>42.85039744156642</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.1709226731607</v>
+        <v>145.1709226731608</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5663811939507</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>224.8931105987457</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2800615416458</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.592654409081017</v>
+        <v>1.592654409081016</v>
       </c>
       <c r="H8" t="n">
         <v>16.31077196700096</v>
       </c>
       <c r="I8" t="n">
-        <v>61.40080910609595</v>
+        <v>61.40080910609591</v>
       </c>
       <c r="J8" t="n">
-        <v>135.1745521527401</v>
+        <v>135.17455215274</v>
       </c>
       <c r="K8" t="n">
-        <v>202.5916132891395</v>
+        <v>202.5916132891394</v>
       </c>
       <c r="L8" t="n">
-        <v>251.3328106610527</v>
+        <v>251.3328106610526</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6561785085473</v>
+        <v>279.6561785085471</v>
       </c>
       <c r="N8" t="n">
-        <v>284.1813078483487</v>
+        <v>284.1813078483485</v>
       </c>
       <c r="O8" t="n">
-        <v>268.3443505680493</v>
+        <v>268.3443505680492</v>
       </c>
       <c r="P8" t="n">
-        <v>229.0256948438617</v>
+        <v>229.0256948438616</v>
       </c>
       <c r="Q8" t="n">
         <v>171.9887588186477</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0445775244355</v>
+        <v>100.0445775244354</v>
       </c>
       <c r="S8" t="n">
-        <v>36.2926123469337</v>
+        <v>36.29261234693368</v>
       </c>
       <c r="T8" t="n">
-        <v>6.971844675752154</v>
+        <v>6.971844675752149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1274123527264813</v>
+        <v>0.1274123527264812</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.85214523406632</v>
+        <v>0.8521452340663196</v>
       </c>
       <c r="H9" t="n">
-        <v>8.229928971114198</v>
+        <v>8.229928971114193</v>
       </c>
       <c r="I9" t="n">
-        <v>29.33921090973953</v>
+        <v>29.33921090973951</v>
       </c>
       <c r="J9" t="n">
-        <v>80.50903722378335</v>
+        <v>80.5090372237833</v>
       </c>
       <c r="K9" t="n">
-        <v>137.6027679062268</v>
+        <v>137.6027679062267</v>
       </c>
       <c r="L9" t="n">
-        <v>185.0239026861981</v>
+        <v>185.023902686198</v>
       </c>
       <c r="M9" t="n">
-        <v>215.9141674211022</v>
+        <v>215.9141674211021</v>
       </c>
       <c r="N9" t="n">
-        <v>221.6287729600821</v>
+        <v>221.628772960082</v>
       </c>
       <c r="O9" t="n">
-        <v>202.7470285631389</v>
+        <v>202.7470285631387</v>
       </c>
       <c r="P9" t="n">
-        <v>162.7223649156993</v>
+        <v>162.7223649156992</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.7755916327464</v>
+        <v>108.7755916327463</v>
       </c>
       <c r="R9" t="n">
-        <v>52.9077540940475</v>
+        <v>52.90775409404748</v>
       </c>
       <c r="S9" t="n">
-        <v>15.82822397487221</v>
+        <v>15.8282239748722</v>
       </c>
       <c r="T9" t="n">
-        <v>3.434743289942753</v>
+        <v>3.434743289942752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0560621864517316</v>
+        <v>0.05606218645173157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7144099388275302</v>
+        <v>0.7144099388275298</v>
       </c>
       <c r="H10" t="n">
-        <v>6.351753819757501</v>
+        <v>6.351753819757497</v>
       </c>
       <c r="I10" t="n">
-        <v>21.4842552512861</v>
+        <v>21.48425525128609</v>
       </c>
       <c r="J10" t="n">
-        <v>50.50878267510638</v>
+        <v>50.50878267510635</v>
       </c>
       <c r="K10" t="n">
-        <v>83.00144562014395</v>
+        <v>83.0014456201439</v>
       </c>
       <c r="L10" t="n">
-        <v>106.2132739962312</v>
+        <v>106.2132739962311</v>
       </c>
       <c r="M10" t="n">
-        <v>111.9870052291191</v>
+        <v>111.987005229119</v>
       </c>
       <c r="N10" t="n">
-        <v>109.3242045480348</v>
+        <v>109.3242045480347</v>
       </c>
       <c r="O10" t="n">
-        <v>100.9785975353677</v>
+        <v>100.9785975353676</v>
       </c>
       <c r="P10" t="n">
-        <v>86.40463478328599</v>
+        <v>86.40463478328593</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.82209042309437</v>
+        <v>59.82209042309434</v>
       </c>
       <c r="R10" t="n">
-        <v>32.12246870400876</v>
+        <v>32.12246870400874</v>
       </c>
       <c r="S10" t="n">
-        <v>12.45021684302159</v>
+        <v>12.45021684302158</v>
       </c>
       <c r="T10" t="n">
-        <v>3.05247882953581</v>
+        <v>3.052478829535808</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03896781484513806</v>
+        <v>0.03896781484513803</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33029,13 +33029,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752261</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353143</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138798</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>363.028733255008</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P36" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>752.2150000824579</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>190.6554855117215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34211,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>192.8077453477183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>270.9138770698939</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>123.2252627981275</v>
       </c>
       <c r="K8" t="n">
-        <v>306.6471748153238</v>
+        <v>306.6471748153236</v>
       </c>
       <c r="L8" t="n">
-        <v>433.2276102415159</v>
+        <v>433.2276102415158</v>
       </c>
       <c r="M8" t="n">
-        <v>498.823478774107</v>
+        <v>498.8234787741069</v>
       </c>
       <c r="N8" t="n">
-        <v>492.1151686637419</v>
+        <v>492.1151686637418</v>
       </c>
       <c r="O8" t="n">
-        <v>419.0463204091079</v>
+        <v>419.0463204091078</v>
       </c>
       <c r="P8" t="n">
-        <v>319.5914072600748</v>
+        <v>319.5914072600747</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.9980596041029</v>
+        <v>161.9980596041028</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>72.77864323961224</v>
+        <v>79.76244589752544</v>
       </c>
       <c r="K9" t="n">
-        <v>264.2265659444464</v>
+        <v>264.2265659444463</v>
       </c>
       <c r="L9" t="n">
-        <v>417.3098682097831</v>
+        <v>417.309868209783</v>
       </c>
       <c r="M9" t="n">
-        <v>539.4851972490837</v>
+        <v>539.4851972490836</v>
       </c>
       <c r="N9" t="n">
-        <v>569.6294352203023</v>
+        <v>383.7745272798151</v>
       </c>
       <c r="O9" t="n">
-        <v>454.013103395424</v>
+        <v>454.0131033954239</v>
       </c>
       <c r="P9" t="n">
-        <v>347.2107261413063</v>
+        <v>347.2107261413062</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>178.8711052825739</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>60.7319537942611</v>
+        <v>60.73195379426105</v>
       </c>
       <c r="L10" t="n">
         <v>133.8032992565473</v>
@@ -35340,13 +35340,13 @@
         <v>151.5708821909597</v>
       </c>
       <c r="N10" t="n">
-        <v>153.4563769272634</v>
+        <v>153.4563769272633</v>
       </c>
       <c r="O10" t="n">
         <v>125.5637254494073</v>
       </c>
       <c r="P10" t="n">
-        <v>83.68319404817947</v>
+        <v>83.68319404817942</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934857</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>733.0399850207735</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>559.987785447079</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>556.7058931896898</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36677,13 +36677,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609554</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340056</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>677.090203895523</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>279.7582138724608</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>525.6867728671535</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P36" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753064</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986648</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>620.8732879991246</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>50.67371142570003</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753064</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>50.67371142570003</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>133.0724380955349</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
